--- a/Documents/Meridian90_220703.xlsx
+++ b/Documents/Meridian90_220703.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumi.n/Desktop/Meridian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB381F-81F8-5443-8F85-8675309B46E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E6E39-D1B8-794F-848F-1E03C99A5A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2860" windowWidth="21580" windowHeight="13660" xr2:uid="{D34549BF-B831-B240-8FA4-EFC967946BE7}"/>
+    <workbookView xWindow="660" yWindow="1060" windowWidth="21580" windowHeight="15460" xr2:uid="{D34549BF-B831-B240-8FA4-EFC967946BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Meridim90" sheetId="1" r:id="rId1"/>
@@ -2419,9 +2419,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3736,7 +3734,7 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3833,7 +3831,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="3"/>
       <c r="C9" s="83">
-        <v>11002</v>
+        <v>10002</v>
       </c>
       <c r="D9" s="89" t="s">
         <v>139</v>
@@ -3843,7 +3841,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7">
-        <v>11003</v>
+        <v>10003</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>138</v>
